--- a/biology/Médecine/Josiah_F._Wedgwood/Josiah_F._Wedgwood.xlsx
+++ b/biology/Médecine/Josiah_F._Wedgwood/Josiah_F._Wedgwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josiah Francis Wedgwood, également connu sous le nom de Josiah Wedgwood VII (né le 1er février 1950 et décédé le 27 novembre 2009) est un médecin et immunologiste pédiatrique américain[1].  
-En 1982, il épouse Ruth Glushien, fille de Morris P. Glushien[2]. Ils ont un fils, Josiah Ruskin Wedgwood (né en 1998). 
-Wedgwood est décédé subitement le 27 novembre 2009, alors qu'il est à Paris pour rencontrer sa famille pour Thanksgiving, par une cause indéterminée[3].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josiah Francis Wedgwood, également connu sous le nom de Josiah Wedgwood VII (né le 1er février 1950 et décédé le 27 novembre 2009) est un médecin et immunologiste pédiatrique américain.  
+En 1982, il épouse Ruth Glushien, fille de Morris P. Glushien. Ils ont un fils, Josiah Ruskin Wedgwood (né en 1998). 
+Wedgwood est décédé subitement le 27 novembre 2009, alors qu'il est à Paris pour rencontrer sa famille pour Thanksgiving, par une cause indéterminée.  
 </t>
         </is>
       </c>
